--- a/study-easyexcel/src/main/resources/excel/indexOrName.xlsx
+++ b/study-easyexcel/src/main/resources/excel/indexOrName.xlsx
@@ -24,13 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan@xdf.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi@xdf.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu@xdf.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoliu@xdf.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +91,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,10 +119,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -85,9 +134,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -378,7 +434,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -386,78 +442,88 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43269</v>
+      </c>
+      <c r="D2">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41078</v>
+      </c>
+      <c r="D5">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>